--- a/MBMValidation2020/ModelingResults.xlsx
+++ b/MBMValidation2020/ModelingResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilaromero/Docs/W&amp;R/Paper Modelo de Negocio/Experimentación/Pruebas Modelado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FC04F5-6A5B-E245-B1FA-C10E24E62E6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477EDB5B-543A-FD42-AA29-0F6759EBD905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22700" yWindow="-480" windowWidth="19860" windowHeight="16040" firstSheet="8" activeTab="9" xr2:uid="{F8570642-16FA-7A49-8742-F26F4A53C9F4}"/>
+    <workbookView xWindow="-22700" yWindow="-480" windowWidth="19860" windowHeight="16040" xr2:uid="{F8570642-16FA-7A49-8742-F26F4A53C9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="M1" sheetId="1" r:id="rId1"/>
@@ -369,6 +369,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -378,7 +379,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8384EE4F-CC61-4A4A-BE5F-8E9E3D3C2AAA}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,34 +706,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -785,10 +785,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1292,12 +1292,12 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1315,8 +1315,11 @@
         <f>SUM(F4:F5,F7:F21,F23:F26)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1340,7 +1343,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
         <f>SUM(B4:B17,B19:B43)</f>
         <v>31.5</v>
@@ -1394,7 +1397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>57</v>
       </c>
@@ -1406,8 +1409,12 @@
         <f>(C44*0.8)+(F37*0.2)</f>
         <v>35.400000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D46" s="4">
+        <f>(C44*0.8)+(G37*0.2)</f>
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" s="5">
         <f>((B46*0.25)/C46)</f>
         <v>0.17796610169491525</v>
@@ -1431,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9D02E2-A5EF-B445-BDA1-ED316E4B93FE}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1442,34 +1449,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1521,10 +1528,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2028,7 +2035,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>16.5</v>
       </c>
@@ -2128,6 +2135,12 @@
       <c r="C44">
         <f>SUM(C4:C17,C19:C43)</f>
         <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <f>(B44*0.8)+(E36*0.2)</f>
+        <v>31.3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2167,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37F873B-9531-FD4C-B245-AB1BD00D0E16}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2178,34 +2191,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2257,10 +2270,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2764,7 +2777,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>17</v>
       </c>
@@ -2864,6 +2877,12 @@
       <c r="C44">
         <f>SUM(C4:C17,C19:C43)</f>
         <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <f>(B44*0.8)+(E36*0.2)</f>
+        <v>31.800000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2903,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3A59A1-F6BB-B949-BF5A-E08CB15CC038}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2914,34 +2933,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2993,10 +3012,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3500,7 +3519,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>5</v>
       </c>
@@ -3600,6 +3619,12 @@
       <c r="C44">
         <f>SUM(C4:C17,C19:C43)</f>
         <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <f>(B44*0.8)+(E36*0.2)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3639,7 +3664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D4161D-3007-8445-8883-4286E7914772}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -3650,34 +3675,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3729,10 +3754,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4236,7 +4261,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>9.5</v>
       </c>
@@ -4375,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D43C19-BF9D-2B40-9AE4-9F556E8A60F8}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -4386,34 +4411,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4465,10 +4490,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4972,7 +4997,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>9.5</v>
       </c>
@@ -5122,34 +5147,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -5201,10 +5226,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -5708,7 +5733,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>9.5</v>
       </c>
@@ -5847,7 +5872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D794A242-3B14-0043-9C09-4A46CC1E744E}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="C26" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -5858,34 +5883,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -5937,10 +5962,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -6444,7 +6469,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>11</v>
       </c>
@@ -6583,7 +6608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05307993-3B94-B647-97FC-38EE858DB4BF}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
+    <sheetView topLeftCell="D14" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -6594,34 +6619,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -6673,10 +6698,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7180,7 +7205,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>8</v>
       </c>
@@ -7319,8 +7344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E954637B-328F-054F-A0A6-999772856CB0}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A10" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7330,34 +7355,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -7409,10 +7434,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7916,7 +7941,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>14.5</v>
       </c>
@@ -8059,7 +8084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8580B4-DD42-D54D-89C9-31E6EF54E4F3}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="D18" zoomScale="88" workbookViewId="0">
+    <sheetView topLeftCell="B14" zoomScale="88" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -8070,34 +8095,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -8149,10 +8174,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -8656,7 +8681,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>8.5</v>
       </c>
@@ -8795,8 +8820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742B4B7B-755F-ED43-B713-1FD32AEDC5F2}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="D14" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A21" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8806,34 +8831,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -8885,10 +8910,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9392,7 +9417,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>12.5</v>
       </c>
@@ -9492,6 +9517,12 @@
       <c r="C44">
         <f>SUM(C4:C17,C19:C43)</f>
         <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <f>(B44*0.8)+(E36*0.2)</f>
+        <v>21.700000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -9531,8 +9562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925024D4-C8F3-0F41-8684-2973F826EA2A}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A15" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9542,34 +9573,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -9621,10 +9652,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -10128,7 +10159,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>9.5</v>
       </c>
@@ -10228,6 +10259,12 @@
       <c r="C44">
         <f>SUM(C4:C17,C19:C43)</f>
         <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <f>(B44*0.8)+(E36*0.2)</f>
+        <v>25.9</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -10267,8 +10304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6A7FCB-45EF-5941-AB8D-DFF41576599A}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10278,34 +10315,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -10357,10 +10394,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -10864,7 +10901,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>11</v>
       </c>
@@ -10964,6 +11001,12 @@
       <c r="C44">
         <f>SUM(C4:C17,C19:C43)</f>
         <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <f>(B44*0.8)+(E36*0.2)</f>
+        <v>21.8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -11003,8 +11046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF466B7-DFBE-4E4D-A6E2-6A5298589E44}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11014,34 +11057,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -11093,10 +11136,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -11600,7 +11643,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>8</v>
       </c>
@@ -11700,6 +11743,12 @@
       <c r="C44">
         <f>SUM(C4:C17,C19:C43)</f>
         <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <f>(B44*0.8)+(E36*0.2)</f>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -11739,8 +11788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BD3B59-9640-754C-95F1-D512705A902C}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11750,34 +11799,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -11829,10 +11878,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -12336,7 +12385,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>10</v>
       </c>
@@ -12436,6 +12485,12 @@
       <c r="C44">
         <f>SUM(C4:C17,C19:C43)</f>
         <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <f>(B44*0.8)+(E36*0.2)</f>
+        <v>25.6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -12475,8 +12530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788D03ED-C8D5-944B-B51E-FD4DEFAE913F}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12486,34 +12541,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -12565,10 +12620,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -13072,7 +13127,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>10</v>
       </c>
@@ -13172,6 +13227,12 @@
       <c r="C44">
         <f>SUM(C4:C17,C19:C43)</f>
         <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <f>(B44*0.8)+(E36*0.2)</f>
+        <v>24.8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -13211,8 +13272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269068CD-2C4B-CB49-8CEF-21FAD6803F4B}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13222,34 +13283,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -13301,10 +13362,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -13808,7 +13869,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(D4:E6,E7:E21)</f>
         <v>6.5</v>
       </c>
@@ -13908,6 +13969,12 @@
       <c r="C44">
         <f>SUM(C4:C17,C19:C43)</f>
         <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <f>(B44*0.8)+(E36*0.2)</f>
+        <v>30.1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
